--- a/data/scan_body/scan_body_unsh.xlsx
+++ b/data/scan_body/scan_body_unsh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_13.04.2022\scan_body\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\scan_body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7015F11-5A17-4231-A2EC-5530FB65643F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4DC8D5-23B5-45CC-9076-BF929A762402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Скан боди</t>
   </si>
   <si>
-    <t>34214V2СупЛ Скан боди LM (собств. разр.) Mis Multi-Unit, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
     <t>34022V2упЛ Скан боди LM (собств. разр.) Bego Semados 3.25/3.75, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
@@ -71,199 +68,208 @@
     <t>34043V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>34218V2Сопт Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34214V2Сопт Скан боди LM (собств. разр.) Mis Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34003V3С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
+  </si>
+  <si>
+    <t>34035V2С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34233V3Сопт Скан боди LM (собств. разр.) Implantium, Impro, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34044V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34046V3СупЛ Скан боди LM (собств. разр.) Straumann SynOcta RN (4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34023V2упЛ Скан боди LM (собств. разр.) Bego Semados Platform Switch 4.1 / 4.1 / 4.5 / 4.5 / 5.5, Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform</t>
+  </si>
+  <si>
+    <t>34043V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34003V2С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
+  </si>
+  <si>
+    <t>34043V3С Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>34012V3С Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>34047V3СупЛ Скан боди LM (собств. разр.) Straumann SynOcta WN (6.5), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34005V3С Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34003V2 Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3.</t>
+  </si>
+  <si>
+    <t>34044V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34002V2упЛ Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34052V3Сопт Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34018V2упЛ Скан боди LM (собств. разр.) Mis WP (5.0/6.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34004V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34016V2упЛ Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34044V3Сопт Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
     <t>34007V3С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>34010V3Сопт Скан боди LM (собств. разр.) Niko 3.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34011V3Сопт Скан боди LM (собств. разр.) Niko 4.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34076V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 4.1 / 5.0 / 6.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34043V3Сопт Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34005V2СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34006V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34012V2упЛ Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34027V3С Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34030упЛ Скан боди LM (собств. разр.) Xive 3.8, нерж. сталь, V.1 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>34002V3С Скан боди LM (собств. разр.) Ankylos C / X, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34003V3С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
-  </si>
-  <si>
-    <t>34035V2С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34044V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34233V3Сопт Скан боди LM (собств. разр.) Implantium, Impro, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34043V3С Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34023V2упЛ Скан боди LM (собств. разр.) Bego Semados Platform Switch 4.1 / 4.1 / 4.5 / 4.5 / 5.5, Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform</t>
-  </si>
-  <si>
-    <t>34003V2С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
-  </si>
-  <si>
-    <t>34015V3С Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34046V3С Скан боди LM (собств. разр.) Straumann SynOcta RN (4.8), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34005V3С Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34052V3Сопт Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34003V2 Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3.</t>
-  </si>
-  <si>
-    <t>34043V3Сопт Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34003V3Сопт Скан боди LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Zimmer 3.5, ti, САТИН</t>
-  </si>
-  <si>
-    <t>34002V2упЛ Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34018V2упЛ Скан боди LM (собств. разр.) Mis WP (5.0/6.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34016V2упЛ Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34004V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34044V3Сопт Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34076V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 4.1 / 5.0 / 6.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34004V3Сопт Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34007V2 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34043уп Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), латунь, V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34007V2С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2упЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34027V2С Скан боди LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34007V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34033V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>34052V3С Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34005V2СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34006V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34012V2упЛ Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34015V3Сопт Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34203V2С Скан боди LM (собств. разр.) Implantium Multi-Unit 4.5 / 5.5, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34006V2 Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34032V2 Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2 Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34016V3Сопт Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34075V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 3.4, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34008V2С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34054 Скан боди LM (собств. разр.) BioHorizons 3.0, латунь, V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>34002V2опт Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>34061V3Сопт Скан боди LM (собств. разр.) Renova RDI (4.5/4.75), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34007V2 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34054 Скан боди LM (собств. разр.) BioHorizons 3.0, латунь, V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34027V3С Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34043уп Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), латунь, V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34007V2С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34044V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34075V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 3.4, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34008V2упЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34027V2С Скан боди LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
     <t>34004V2 Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34007V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34033V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34203V2С Скан боди LM (собств. разр.) Implantium Multi-Unit 4.5 / 5.5, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34006V2 Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34032V2 Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34008V2 Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34030упЛ Скан боди LM (собств. разр.) Xive 3.8, нерж. сталь, V.1 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34258V3Сопт Скан боди LM (собств. разр.) Conmet classic, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34008V2С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34017V3СупЛ Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34201V2С Скан боди LM (собств. разр.) Nobel Multi-Unit, LENMIRIOT Multi-Unit (отв. Dentium) / (отв. Megagen) / (отв. Nobel) / (отв. Osstem), MegaGen M</t>
   </si>
 </sst>
 </file>
@@ -740,10 +746,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -756,7 +762,7 @@
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -816,15 +822,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>346</v>
+        <v>245</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>294</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -834,13 +840,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -850,15 +858,13 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="6">
-        <v>4</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -868,13 +874,13 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -887,10 +893,12 @@
         <v>12</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -900,15 +908,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -918,13 +924,13 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -934,29 +940,31 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -966,13 +974,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -982,12 +990,10 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
         <v>5</v>
@@ -1000,13 +1006,13 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1016,13 +1022,15 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6">
+        <v>4</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1032,10 +1040,12 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
         <v>4</v>
@@ -1048,12 +1058,10 @@
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="6">
-        <v>4</v>
-      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6">
         <v>4</v>
@@ -1091,7 +1099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
@@ -1123,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
@@ -1146,10 +1154,12 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="6">
+        <v>6</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
         <v>3</v>
@@ -1162,11 +1172,11 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
@@ -1180,13 +1190,13 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1196,13 +1206,13 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1228,10 +1238,12 @@
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="6">
+        <v>5</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
         <v>2</v>
@@ -1262,12 +1274,10 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="6">
-        <v>5</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
         <v>2</v>
@@ -1305,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>39</v>
       </c>
@@ -1328,12 +1338,10 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="6">
-        <v>5</v>
-      </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
         <v>2</v>
@@ -1346,12 +1354,10 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="17"/>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
         <v>2</v>
@@ -1364,10 +1370,12 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E39" s="17"/>
-      <c r="F39" s="7"/>
+      <c r="F39" s="6">
+        <v>5</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
         <v>2</v>
@@ -1380,13 +1388,15 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1396,13 +1406,13 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1423,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
         <v>46</v>
       </c>
@@ -1439,17 +1449,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="7"/>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
         <v>1</v>
@@ -1471,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>49</v>
       </c>
@@ -1487,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>50</v>
       </c>
@@ -1503,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>51</v>
       </c>
@@ -1551,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>54</v>
       </c>
@@ -1574,12 +1586,10 @@
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="17"/>
-      <c r="F52" s="6">
-        <v>1</v>
-      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
         <v>1</v>
@@ -1656,12 +1666,10 @@
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" s="17"/>
-      <c r="F57" s="6">
-        <v>3</v>
-      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
         <v>1</v>
@@ -1674,12 +1682,10 @@
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="17"/>
-      <c r="F58" s="6">
-        <v>1</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
         <v>1</v>
@@ -1692,10 +1698,12 @@
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="17"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="6">
+        <v>1</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
         <v>1</v>
@@ -1708,12 +1716,10 @@
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E60" s="17"/>
-      <c r="F60" s="6">
-        <v>7</v>
-      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
         <v>1</v>
@@ -1735,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>65</v>
       </c>
@@ -1758,11 +1764,11 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
@@ -1776,10 +1782,12 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E64" s="17"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="6">
+        <v>8</v>
+      </c>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
         <v>1</v>
@@ -1801,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>69</v>
       </c>
@@ -1833,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
@@ -1865,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>73</v>
       </c>
@@ -1888,12 +1896,10 @@
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="17"/>
-      <c r="F71" s="6">
-        <v>1</v>
-      </c>
+      <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
         <v>1</v>
@@ -1922,10 +1928,12 @@
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="17"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
         <v>1</v>
@@ -1938,18 +1946,16 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="17"/>
-      <c r="F74" s="6">
-        <v>1</v>
-      </c>
+      <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>78</v>
       </c>
@@ -1981,26 +1987,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
+    <row r="77" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="17">
+        <v>1</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17">
+        <v>1</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="18">
-        <v>346</v>
-      </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="8">
-        <v>52</v>
-      </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="8">
-        <v>294</v>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="18">
+        <v>245</v>
+      </c>
+      <c r="E79" s="18"/>
+      <c r="F79" s="8">
+        <v>54</v>
+      </c>
+      <c r="G79" s="9"/>
+      <c r="H79" s="8">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="149">
+  <mergeCells count="153">
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:E79"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="A74:C74"/>

--- a/data/scan_body/scan_body_unsh.xlsx
+++ b/data/scan_body/scan_body_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_20.04.2022\scan_body\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\scan_body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4DC8D5-23B5-45CC-9076-BF929A762402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB77422-A4BB-4B82-8E77-9A5C0EA578FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,22 +56,31 @@
     <t>Скан боди</t>
   </si>
   <si>
+    <t>34008V3С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34218V2С Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>34022V2упЛ Скан боди LM (собств. разр.) Bego Semados 3.25/3.75, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>34233V3С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34008V3С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+    <t>34233V3Сопт Скан боди LM (собств. разр.) Implantium, Impro, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>34043V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34218V2Сопт Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34214V2Сопт Скан боди LM (собств. разр.) Mis Multi-Unit, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>34208V2С Скан боди LM (собств. разр.) Ankylos Multi-Unit, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34002V3С Скан боди LM (собств. разр.) Ankylos C / X, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34007V3С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34003V3С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
@@ -80,151 +89,175 @@
     <t>34035V2С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34233V3Сопт Скан боди LM (собств. разр.) Implantium, Impro, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
     <t>34044V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34046V3СупЛ Скан боди LM (собств. разр.) Straumann SynOcta RN (4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
     <t>34023V2упЛ Скан боди LM (собств. разр.) Bego Semados Platform Switch 4.1 / 4.1 / 4.5 / 4.5 / 5.5, Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform</t>
   </si>
   <si>
-    <t>34043V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34043V3С Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34012V3С Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34003V2С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
   </si>
   <si>
-    <t>34043V3С Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34012V3С Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34047V3СупЛ Скан боди LM (собств. разр.) Straumann SynOcta WN (6.5), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34063V3С Скан боди LM (собств. разр.) Roott, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34054V3Сопт Скан боди LM (собств. разр.) BioHorizons 3.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34005V3С Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
+    <t>34201V2СOопт Скан боди LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Osstem), ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>34003V2 Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3.</t>
   </si>
   <si>
+    <t>34076V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 4.1 / 5.0 / 6.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34007V3Сопт Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34052V3С Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34005V2СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34008V3Сопт Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34016V2упЛ Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34018V2упЛ Скан боди LM (собств. разр.) Mis WP (5.0/6.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34012V3Сопт Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34004V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34002V2упЛ Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34006V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34012V2упЛ Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34008V2С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34032V3Сопт Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34010V3Сопт Скан боди LM (собств. разр.) Niko 3.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34002V2опт Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34027V3С Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34033V3Сопт Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34027V3Сопт Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34020V3Сопт Скан боди LM (собств. разр.) Adin RP (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34004V2 Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34075V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 3.4, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
     <t>34044V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34002V2упЛ Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34052V3Сопт Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34018V2упЛ Скан боди LM (собств. разр.) Mis WP (5.0/6.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34004V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34016V2упЛ Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34044V3Сопт Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34007V3С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34010V3Сопт Скан боди LM (собств. разр.) Niko 3.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34011V3Сопт Скан боди LM (собств. разр.) Niko 4.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34076V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 4.1 / 5.0 / 6.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34043V3Сопт Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34005V2СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34006V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34012V2упЛ Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34027V3С Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+    <t>34007V2С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34043уп Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), латунь, V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34007V2 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34030упЛ Скан боди LM (собств. разр.) Xive 3.8, нерж. сталь, V.1 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34002V3С Скан боди LM (собств. разр.) Ankylos C / X, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34004V3Сопт Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34007V2 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34043уп Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), латунь, V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34007V2С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34027V2С Скан боди LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34015V3Сопт Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34008V2упЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34027V2С Скан боди LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34019V3Сопт Скан боди LM (собств. разр.) Adin NP (3.0), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34054 Скан боди LM (собств. разр.) BioHorizons 3.0, латунь, V.1 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34007V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
@@ -233,10 +266,13 @@
     <t>34033V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34052V3С Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34015V3Сопт Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>34014V3Сопт Скан боди LM (собств. разр.) Astra Tech 3.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34023V3Сопт Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
+  </si>
+  <si>
+    <t>34232V2С Скан боди LM (собств. разр.) MegaGen MiNi, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34203V2С Скан боди LM (собств. разр.) Implantium Multi-Unit 4.5 / 5.5, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
@@ -249,27 +285,6 @@
   </si>
   <si>
     <t>34008V2 Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34016V3Сопт Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34075V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 3.4, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34008V2С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34054 Скан боди LM (собств. разр.) BioHorizons 3.0, латунь, V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34002V2опт Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34004V2 Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / БЕЗ ВИНТА</t>
   </si>
 </sst>
 </file>
@@ -746,11 +761,9 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -761,8 +774,7 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -822,15 +834,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>191</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -843,12 +855,10 @@
         <v>20</v>
       </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="6">
-        <v>4</v>
-      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -858,13 +868,13 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -874,13 +884,15 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6">
+        <v>4</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -890,15 +902,13 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -908,13 +918,13 @@
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -924,13 +934,15 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -940,31 +952,29 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -974,13 +984,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -990,13 +1000,13 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1006,13 +1016,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1022,15 +1034,13 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="6">
-        <v>4</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1040,11 +1050,11 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
@@ -1099,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
@@ -1154,12 +1164,10 @@
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="6">
-        <v>6</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="6">
         <v>3</v>
@@ -1172,12 +1180,10 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="6">
-        <v>3</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
         <v>3</v>
@@ -1190,13 +1196,15 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="6">
+        <v>6</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1231,19 +1239,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="6">
-        <v>5</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
         <v>2</v>
@@ -1256,11 +1262,11 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
@@ -1290,10 +1296,12 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="6">
+        <v>2</v>
+      </c>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
         <v>2</v>
@@ -1338,10 +1346,12 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="7"/>
+      <c r="F37" s="6">
+        <v>5</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
         <v>2</v>
@@ -1370,11 +1380,11 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
@@ -1388,12 +1398,10 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="6">
-        <v>1</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
         <v>2</v>
@@ -1406,13 +1414,13 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1422,12 +1430,10 @@
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="17"/>
-      <c r="F42" s="6">
-        <v>1</v>
-      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
         <v>1</v>
@@ -1456,18 +1462,16 @@
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="17"/>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
         <v>48</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
         <v>49</v>
       </c>
@@ -1515,17 +1519,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="17"/>
-      <c r="F48" s="7"/>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
         <v>1</v>
@@ -1547,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>53</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>54</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>55</v>
       </c>
@@ -1691,19 +1697,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="17"/>
-      <c r="F59" s="6">
-        <v>1</v>
-      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
         <v>1</v>
@@ -1716,10 +1720,12 @@
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="17"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="6">
+        <v>1</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
         <v>1</v>
@@ -1732,10 +1738,12 @@
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E61" s="17"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="6">
+        <v>3</v>
+      </c>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
         <v>1</v>
@@ -1748,10 +1756,12 @@
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="17"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="6">
+        <v>1</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
         <v>1</v>
@@ -1764,30 +1774,26 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E63" s="17"/>
-      <c r="F63" s="6">
-        <v>7</v>
-      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E64" s="17"/>
-      <c r="F64" s="6">
-        <v>8</v>
-      </c>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
         <v>1</v>
@@ -1809,17 +1815,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="17"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="6">
+        <v>1</v>
+      </c>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
         <v>1</v>
@@ -1857,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
         <v>72</v>
       </c>
@@ -1873,17 +1881,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>73</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E70" s="17"/>
-      <c r="F70" s="7"/>
+      <c r="F70" s="6">
+        <v>7</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
         <v>1</v>
@@ -1928,18 +1938,16 @@
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="17"/>
-      <c r="F73" s="6">
-        <v>1</v>
-      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>77</v>
       </c>
@@ -1955,17 +1963,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E75" s="17"/>
-      <c r="F75" s="7"/>
+      <c r="F75" s="6">
+        <v>8</v>
+      </c>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
         <v>1</v>
@@ -2003,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>81</v>
       </c>
@@ -2019,30 +2029,120 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
+    <row r="79" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="17">
+        <v>1</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="17">
+        <v>1</v>
+      </c>
+      <c r="E80" s="17"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="17">
+        <v>1</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="17">
+        <v>1</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="17">
+        <v>1</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="18">
-        <v>245</v>
-      </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="8">
-        <v>54</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="8">
-        <v>191</v>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="18">
+        <v>285</v>
+      </c>
+      <c r="E84" s="18"/>
+      <c r="F84" s="8">
+        <v>51</v>
+      </c>
+      <c r="G84" s="9"/>
+      <c r="H84" s="8">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="153">
+  <mergeCells count="163">
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:E84"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:E82"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="A74:C74"/>

--- a/data/scan_body/scan_body_unsh.xlsx
+++ b/data/scan_body/scan_body_unsh.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_04.05.2022\scan_body\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Desktop\data_12.07.2022\scan_body\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB77422-A4BB-4B82-8E77-9A5C0EA578FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D517104A-6C84-41EE-954D-029C1306B4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>Отбор:</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Скан боди</t>
   </si>
   <si>
+    <t>34233V3С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>34008V3С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
@@ -65,58 +68,58 @@
     <t>34022V2упЛ Скан боди LM (собств. разр.) Bego Semados 3.25/3.75, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34233V3С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+    <t>34043V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34208V2С Скан боди LM (собств. разр.) Ankylos Multi-Unit, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34002V3С Скан боди LM (собств. разр.) Ankylos C / X, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34007V3С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34003V3С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
+  </si>
+  <si>
+    <t>34012V3Сопт Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34035V2С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34044V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34012V3С Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34043V3С Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34023V2упЛ Скан боди LM (собств. разр.) Bego Semados Platform Switch 4.1 / 4.1 / 4.5 / 4.5 / 5.5, Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform</t>
+  </si>
+  <si>
+    <t>34005V3С Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34003V2С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
+  </si>
+  <si>
+    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
   </si>
   <si>
     <t>34233V3Сопт Скан боди LM (собств. разр.) Implantium, Impro, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
-    <t>34043V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34208V2С Скан боди LM (собств. разр.) Ankylos Multi-Unit, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34002V3С Скан боди LM (собств. разр.) Ankylos C / X, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34007V3С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34003V3С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
-  </si>
-  <si>
-    <t>34035V2С Скан боди LM (собств. разр.) Implantium, CSM, Dentis Regular, Impro, INNO, MegaGen AnyOne, NeoBiotech 3.8 / 4.3, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34044V3упЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, V.3 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34023V2упЛ Скан боди LM (собств. разр.) Bego Semados Platform Switch 4.1 / 4.1 / 4.5 / 4.5 / 5.5, Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform</t>
-  </si>
-  <si>
-    <t>34043V3С Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34012V3С Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34003V2С Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3</t>
-  </si>
-  <si>
-    <t>34063V3С Скан боди LM (собств. разр.) Roott, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34054V3Сопт Скан боди LM (собств. разр.) BioHorizons 3.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34218V2 Скан боди LM (собств. разр.) Osstem Implant Multi-Unit, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34005V3С Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34201V2СOопт Скан боди LM (собств. разр.) LENMIRIOT Multi-Unit (отв. Osstem), ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>34232V2Сопт Скан боди LM (собств. разр.) MegaGen MiNi, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34008V3Сопт Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34233V3С1опт Скан боди LM (собств. разр.) Dentis Regular, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>34003V2 Скан боди LM (собств. разр.) Mis SP (3.75/4.2), AB Dental, Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Renova SDI (3.</t>
@@ -125,16 +128,25 @@
     <t>34076V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 4.1 / 5.0 / 6.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34007V3Сопт Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>34017V3Сопт Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34241С Скан боди LM (собств. разр.) Straumann Bone Level Multi-Unit NC/RC (3.3/4.1/4.8), ti, САТИН. V.1.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34003V3Сопт Скан боди LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Zimmer 3.5, ti, САТИН</t>
   </si>
   <si>
     <t>34052V3С Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
   </si>
   <si>
+    <t>34027V3С Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>34005V2СупЛ Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34008V3Сопт Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>34203V2Сопт Скан боди LM (собств. разр.) Implantium Multi-Unit 4.5 / 5.5, ti, САТИН. V.2.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
   </si>
   <si>
     <t>34016V2упЛ Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
@@ -143,7 +155,13 @@
     <t>34018V2упЛ Скан боди LM (собств. разр.) Mis WP (5.0/6.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34012V3Сопт Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+    <t>34015V3Сопт Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34016V3Сопт Скан боди LM (собств. разр.) Astra Tech 4.5/5.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34006V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>34004V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
@@ -152,139 +170,118 @@
     <t>34002V2упЛ Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
-    <t>34006V2упЛ Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+    <t>34052V3СупЛ Скан боди LM (собств. разр.) Anthogyr Axiom, ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
     <t>34012V2упЛ Скан боди LM (собств. разр.) MegaGen AnyRidge, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
   <si>
+    <t>34054 Скан боди LM (собств. разр.) BioHorizons 3.0, латунь, V.1 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34002V2опт Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34031V3Сопт Скан боди LM (собств. разр.) Xive 4.5 / 5.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34030V3Сопт Скан боди LM (собств. разр.) Xive 3.8, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
+  </si>
+  <si>
+    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34004V2 Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34044V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34007V2С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34043уп Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), латунь, V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34007V2 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34075V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 3.4, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34030упЛ Скан боди LM (собств. разр.) Xive 3.8, нерж. сталь, V.1 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34027V2С Скан боди LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2упЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34003V3СупЛ Скан боди LM (собств. разр.) Mis SP (3.75/4.2), Adin RS (3.5/3.75/4.2/5.0/6.0), Alpha Bio Internal, BioHorizons 3.5, Zimmer 3.5, ti, САТИН</t>
+  </si>
+  <si>
+    <t>34007V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34033V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
+  </si>
+  <si>
+    <t>34203V2С Скан боди LM (собств. разр.) Implantium Multi-Unit 4.5 / 5.5, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34006V2 Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34032V2 Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
+    <t>34008V2 Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / БЕЗ ВИНТА</t>
+  </si>
+  <si>
     <t>34008V2С Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
   </si>
   <si>
-    <t>34032V3Сопт Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34010V3Сопт Скан боди LM (собств. разр.) Niko 3.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34002V2опт Скан боди LM (собств. разр.) Ankylos C / X, ti, V.2 / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34027V3С Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34033V3Сопт Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34035V2СупЛ Скан боди LM (собств. разр.) Implantium, Implantium, Impro, ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34028V2упЛ Скан боди LM (собств. разр.) Nobel Conical Connection WP (5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34027V3Сопт Скан боди LM (собств. разр.) Nobel Active RP (4.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34033V2 Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34034V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 5.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34017V2С Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34217V2упЛ Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34005V2 Скан боди LM (собств. разр.) Mis C1 (Conical) SP (3.75/4.2), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34232V2упЛ Скан боди LM (собств. разр.) MegaGen MiNi, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34020V3Сопт Скан боди LM (собств. разр.) Adin RP (3.5), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34015V2упЛ Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34019V2упЛ Скан боди LM (собств. разр.) Adin NP (3.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34004V2 Скан боди LM (собств. разр.) Mis C1 (Conical) NP (3.3), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34075V2упЛ Скан боди LM (собств. разр.) Biomet 3i Certain 3.4, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34044V3СупЛ Скан боди LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34007V2С Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34043уп Скан боди LM (собств. разр.) Straumann Bone Level NC (3.3), латунь, V.1 / 1 ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34007V2 Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34217V3С Скан боди LM (собств. разр.) Alpha Bio Conical Narrow, ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34030упЛ Скан боди LM (собств. разр.) Xive 3.8, нерж. сталь, V.1 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34026V2упЛ Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34027V2С Скан боди LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3), ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34015V3Сопт Скан боди LM (собств. разр.) Astra Tech 3.5/4.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34008V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34026V3С Скан боди LM (собств. разр.) Nobel Active NP (3.5), ti, САТИН. V.3.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34008V2упЛ Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34019V3Сопт Скан боди LM (собств. разр.) Adin NP (3.0), ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34054 Скан боди LM (собств. разр.) BioHorizons 3.0, латунь, V.1 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34007V2СупЛ Скан боди LM (собств. разр.) Osstem Implant Mini (3.5), ti, САТИН. V.2.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34033V2упЛ Скан боди LM (собств. разр.) Nobel Replace Select 4.3, ti, V.2 / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
-  </si>
-  <si>
-    <t>34014V3Сопт Скан боди LM (собств. разр.) Astra Tech 3.0, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.РУ/ОПТ</t>
-  </si>
-  <si>
-    <t>34023V3Сопт Скан боди LM (собств. разр.) Bego Semados 4.1 / 4.5 / 5.5, Bego Semados Platform Switch 4.1 / 4.5, ti, САТИН. V.3.S / ВКЛ. 1 ВИНТ, ИМ АБ.Р</t>
-  </si>
-  <si>
-    <t>34232V2С Скан боди LM (собств. разр.) MegaGen MiNi, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34203V2С Скан боди LM (собств. разр.) Implantium Multi-Unit 4.5 / 5.5, ti, САТИН. V.2.S / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34006V2 Скан боди LM (собств. разр.) Mis C1 (Conical) WP (5.0), ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34032V2 Скан боди LM (собств. разр.) Nobel Replace Select 3.5, ti, V.2 / БЕЗ ВИНТА</t>
-  </si>
-  <si>
-    <t>34008V2 Скан боди LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), ti, V.2 / БЕЗ ВИНТА</t>
+    <t>34017V3СупЛ Скан боди LM (собств. разр.) Mis NP (3.3), ti, САТИН. V.3.S / 1 ЛАБ. ВИНТ, В БЛИСТЕРЕ</t>
   </si>
 </sst>
 </file>
@@ -761,7 +758,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -774,7 +771,8 @@
     <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -834,15 +832,15 @@
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="4">
-        <v>234</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -852,13 +850,13 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="17">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -868,13 +866,13 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -884,15 +882,13 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="6">
-        <v>4</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -902,13 +898,15 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -921,10 +919,12 @@
         <v>12</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -934,47 +934,45 @@
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -984,13 +982,13 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1050,15 +1048,13 @@
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="6">
-        <v>4</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1084,10 +1080,12 @@
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17">
+        <v>8</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6">
         <v>4</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
         <v>4</v>
@@ -1109,23 +1107,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
@@ -1141,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>28</v>
       </c>
@@ -1196,12 +1194,10 @@
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="6">
-        <v>6</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6">
         <v>3</v>
@@ -1214,13 +1210,15 @@
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="7"/>
+      <c r="F29" s="6">
+        <v>6</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1239,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>34</v>
       </c>
@@ -1262,12 +1260,10 @@
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E32" s="17"/>
-      <c r="F32" s="6">
-        <v>5</v>
-      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
         <v>2</v>
@@ -1289,19 +1285,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="17"/>
-      <c r="F34" s="6">
-        <v>2</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
         <v>2</v>
@@ -1330,10 +1324,12 @@
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E36" s="17"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="6">
+        <v>5</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
         <v>2</v>
@@ -1346,12 +1342,10 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="6">
-        <v>5</v>
-      </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
         <v>2</v>
@@ -1364,10 +1358,12 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" s="17"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="6">
+        <v>2</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
         <v>2</v>
@@ -1380,12 +1376,10 @@
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="17"/>
-      <c r="F39" s="6">
-        <v>1</v>
-      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
         <v>2</v>
@@ -1414,13 +1408,13 @@
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1430,13 +1424,15 @@
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" s="17"/>
-      <c r="F42" s="7"/>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1446,13 +1442,15 @@
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E43" s="17"/>
-      <c r="F43" s="7"/>
+      <c r="F43" s="6">
+        <v>5</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1462,13 +1460,13 @@
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1478,13 +1476,13 @@
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1494,16 +1492,16 @@
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
         <v>50</v>
       </c>
@@ -1526,12 +1524,10 @@
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="17"/>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
         <v>1</v>
@@ -1553,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>53</v>
       </c>
@@ -1576,16 +1572,18 @@
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="17"/>
-      <c r="F51" s="7"/>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>55</v>
       </c>
@@ -1617,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>57</v>
       </c>
@@ -1665,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>60</v>
       </c>
@@ -1697,7 +1695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>62</v>
       </c>
@@ -1720,30 +1718,26 @@
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" s="17"/>
-      <c r="F60" s="6">
-        <v>1</v>
-      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E61" s="17"/>
-      <c r="F61" s="6">
-        <v>3</v>
-      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
         <v>1</v>
@@ -1756,11 +1750,11 @@
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
@@ -1774,16 +1768,18 @@
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="17"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>67</v>
       </c>
@@ -1799,7 +1795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>68</v>
       </c>
@@ -1856,10 +1852,12 @@
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="17"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
         <v>1</v>
@@ -1947,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>77</v>
       </c>
@@ -2013,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
         <v>81</v>
       </c>
@@ -2061,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
         <v>84</v>
       </c>
@@ -2077,62 +2075,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="17"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="6">
+        <v>1</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="21.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="17">
-        <v>1</v>
-      </c>
-      <c r="E83" s="17"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+    <row r="83" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="18">
-        <v>285</v>
-      </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="8">
-        <v>51</v>
-      </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="8">
-        <v>234</v>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="18">
+        <v>302</v>
+      </c>
+      <c r="E83" s="18"/>
+      <c r="F83" s="8">
+        <v>52</v>
+      </c>
+      <c r="G83" s="9"/>
+      <c r="H83" s="8">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="163">
+  <mergeCells count="161">
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="D83:E83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:E84"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="A79:C79"/>
